--- a/outputs/torch/lstm.xlsx
+++ b/outputs/torch/lstm.xlsx
@@ -1,130 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ll\github\NNparser\outputs\torch\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17820" windowHeight="11520"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="details" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>layer_l0</t>
-  </si>
-  <si>
-    <t>layer_l1</t>
-  </si>
-  <si>
-    <t>I1</t>
-  </si>
-  <si>
-    <t>I2</t>
-  </si>
-  <si>
-    <t>I3</t>
-  </si>
-  <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
-    <t>SizeI</t>
-  </si>
-  <si>
-    <t>SizeO</t>
-  </si>
-  <si>
-    <t>SizeW</t>
-  </si>
-  <si>
-    <t>OpGemm</t>
-  </si>
-  <si>
-    <t>OpElem</t>
-  </si>
-  <si>
-    <t>OpActi</t>
-  </si>
-  <si>
-    <t>Embedding: 1-1</t>
-  </si>
-  <si>
-    <t>LSTM: 1-2</t>
-  </si>
-  <si>
-    <t>Linear: 1-3</t>
-  </si>
-  <si>
-    <t>Model Statistics:</t>
-  </si>
-  <si>
-    <t>Total Activations(MB):</t>
-  </si>
-  <si>
-    <t>Total Weights(MB):</t>
-  </si>
-  <si>
-    <t>Total Gemm (G_ops):</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="00C0C0C0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,50 +51,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor rgb="00FF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF00FF"/>
+          <bgColor rgb="00FF00FF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="0000FF00"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,213 +452,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>layer_l0</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>layer_l1</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>O1</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>O3</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>SizeI</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>SizeO</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>SizeW</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>OpGemm</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>OpElem</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>OpActi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Embedding: 1-1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>300</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>300</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9600</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9600</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LSTM: 1-2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="D3" t="n">
+        <v>300</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G3" t="n">
+        <v>512</v>
+      </c>
+      <c r="I3" t="n">
         <v>300</v>
       </c>
-      <c r="I2">
+      <c r="J3" t="n">
+        <v>512</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3768320</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3760128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Linear: 1-3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>300</v>
-      </c>
-      <c r="K2">
-        <v>9600</v>
-      </c>
-      <c r="L2">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
+      <c r="D4" t="n">
+        <v>512</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>300</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="G4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
         <v>512</v>
       </c>
-      <c r="I3">
-        <v>300</v>
-      </c>
-      <c r="J3">
-        <v>512</v>
-      </c>
-      <c r="K3">
-        <v>3768320</v>
-      </c>
-      <c r="L3">
-        <v>3760128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>512</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="J4" t="n">
         <v>32</v>
       </c>
-      <c r="I4">
-        <v>512</v>
-      </c>
-      <c r="J4">
-        <v>32</v>
-      </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>16416</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>16384</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J1:J4">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>512</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K4">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>3768320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L4">
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>3760128</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Model Statistics:</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>8.04901123046875E-4</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Total Activations(MB):</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.000804901123046875</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Total Weights(MB):</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3.618560791015625</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>3.7861119999999999E-3</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Gemm (G_ops):</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.003786112</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/torch/lstm.xlsx
+++ b/outputs/torch/lstm.xlsx
@@ -596,7 +596,10 @@
         <v>3768320</v>
       </c>
       <c r="L3" t="n">
-        <v>3760128</v>
+        <v>3768320</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5120</v>
       </c>
     </row>
     <row r="4">
@@ -643,7 +646,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L4">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
-      <formula>3760128</formula>
+      <formula>3768320</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -681,7 +684,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.000804901123046875</v>
+        <v>0.000844</v>
       </c>
     </row>
     <row r="3">
@@ -691,7 +694,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.618560791015625</v>
+        <v>3.794336</v>
       </c>
     </row>
     <row r="4">
@@ -701,7 +704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003786112</v>
+        <v>0.003794304</v>
       </c>
     </row>
   </sheetData>
